--- a/Network.xlsx
+++ b/Network.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF686422-0CAA-43C2-8B7C-94144D5ED4E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37898A2-721F-4E90-A776-318893BB0E1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.004</v>
+        <v>3.1158510969672801</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3.1152858076063841</v>
+        <v>3.1786573050226301</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0073082458644111</v>
+        <v>3.1824761950001466</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2.9518035579861657</v>
+        <v>3.1075223280419788</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3.1450356815377329</v>
+        <v>3.2274072089652348</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3.2201091412385305</v>
+        <v>3.1630757992309761</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3.2341013317525062</v>
+        <v>3.2443518739674797</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3.2183623943761321</v>
+        <v>3.2391933259534862</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.0009226553347195</v>
+        <v>3.2303932345963711</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2.9152641435806479</v>
+        <v>3.1024482497644219</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3.156897196925339</v>
+        <v>3.1956344939097723</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3.3984394796639554</v>
+        <v>3.1985048187479213</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>

--- a/Network.xlsx
+++ b/Network.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37898A2-721F-4E90-A776-318893BB0E1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="管段数据" sheetId="1" r:id="rId1"/>
     <sheet name="节点数据" sheetId="2" r:id="rId2"/>
     <sheet name="气体组分" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>管段编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,12 +74,15 @@
   <si>
     <t>CH4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点海拔(m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -435,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF64DB10-4205-4E93-8F5F-7B77164379E5}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +693,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -707,47 +709,56 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.1158510969672801</v>
+        <v>3.0422565929999998</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>8585</v>
+        <v>18585</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>1.2492957140000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3.1786573050226301</v>
+        <v>3.1218216989999998</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>8845</v>
+        <v>18845</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>2.2223702599999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.1824761950001466</v>
+        <v>3.0412211990000002</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -758,13 +769,16 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>17.895102269999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3.1075223280419788</v>
+        <v>3.0479104229999998</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -775,25 +789,31 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>18.952454070000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3.2274072089652348</v>
+        <v>3.0914754929999999</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>11606</v>
+        <v>21606</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>7.4189659389999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -804,18 +824,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>-60000</v>
+        <v>-50000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>8.7706444280000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3.1630757992309761</v>
+        <v>3.0677278889999999</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -826,47 +849,56 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>11.484613380000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3.2443518739674797</v>
+        <v>3.1202054069999998</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>10052</v>
+        <v>20052</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>2.521575839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3.2391933259534862</v>
+        <v>3.0414461670000001</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>8924</v>
+        <v>18924</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
+        <v>19.63785073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.2303932345963711</v>
+        <v>3.0262229810000001</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -877,47 +909,56 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>19.708737379999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.1024482497644219</v>
+        <v>3.0245572049999998</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>9780</v>
+        <v>19780</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>17.334561879999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3.1956344939097723</v>
+        <v>3.1795441160000002</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>8322</v>
+        <v>18322</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>7.1461700669999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3.1985048187479213</v>
+        <v>3.1221630870000001</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -927,6 +968,9 @@
       </c>
       <c r="E14" s="1">
         <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18.093060300000001</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CE8150-F5BC-42C6-B0B8-680EB8F0B1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
